--- a/Mendix/input/data/Local_Material_Data.xlsx
+++ b/Mendix/input/data/Local_Material_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Documents\Heniken\Latest 25.2.19\Mendix\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\MIP\Mendix\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>S.NO</t>
   </si>
@@ -712,10 +712,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IX2"/>
+  <dimension ref="A1:IX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -842,6 +842,59 @@
         <v>79</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Mendix/input/data/Local_Material_Data.xlsx
+++ b/Mendix/input/data/Local_Material_Data.xlsx
@@ -715,7 +715,7 @@
   <dimension ref="A1:IX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>71</v>
@@ -856,7 +856,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>71</v>

--- a/Mendix/input/data/Local_Material_Data.xlsx
+++ b/Mendix/input/data/Local_Material_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>S.NO</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>2, Transfer</t>
+  </si>
+  <si>
+    <t>0.001</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:IX3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -803,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>71</v>
@@ -856,7 +859,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>71</v>
@@ -871,7 +874,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>72</v>

--- a/Mendix/input/data/Local_Material_Data.xlsx
+++ b/Mendix/input/data/Local_Material_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>S.NO</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>0.001</t>
+  </si>
+  <si>
+    <t>MZ02, DC Matola Bollore</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:IX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -842,7 +845,7 @@
         <v>78</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>80</v>

--- a/Mendix/input/data/Local_Material_Data.xlsx
+++ b/Mendix/input/data/Local_Material_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>S.NO</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>MZ02, DC Matola Bollore</t>
+  </si>
+  <si>
+    <t>G, Gram, G</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="A1:IX3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -815,19 +818,19 @@
         <v>71</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>74</v>
@@ -877,7 +880,7 @@
         <v>72</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>72</v>
